--- a/all/DS5 -  Master Marksheet.xlsx
+++ b/all/DS5 -  Master Marksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Class Mastersheet\DS-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68988CF-D2BE-435D-827B-B2802B8003AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63DE2C7-8F71-4683-885F-575FF493B059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="17" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="81">
   <si>
     <t>Zone</t>
   </si>
@@ -273,9 +273,6 @@
   </si>
   <si>
     <t xml:space="preserve"> +971 564627373</t>
-  </si>
-  <si>
-    <t>Br.Hasan (+971 558912665)</t>
   </si>
   <si>
     <t>Class Started</t>
@@ -302,9 +299,6 @@
     <t>Professional</t>
   </si>
   <si>
-    <t>INDEX</t>
-  </si>
-  <si>
     <t>Subject</t>
   </si>
   <si>
@@ -325,13 +319,44 @@
   <si>
     <t>Sarf-8
 (36-40)</t>
+  </si>
+  <si>
+    <t>Dy. Nazim</t>
+  </si>
+  <si>
+    <t>Br.Sibtain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Br.Hasan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +971 558912665</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +971 505648316</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In His Name and By The Grace of His Last Hujjat (a.t.f.s)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Master Mark Sheet of Class - DS5</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -439,6 +464,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -466,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -670,12 +702,138 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -727,9 +885,6 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -817,26 +972,50 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1146,107 +1325,107 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="38.19921875" customWidth="1"/>
+    <col min="1" max="1" width="12.09765625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="47.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:2" ht="60.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="43"/>
+    </row>
+    <row r="2" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="44"/>
-    </row>
-    <row r="2" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="25" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="27">
+        <v>2</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27">
+        <v>3</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27">
+        <v>4</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27">
+        <v>5</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26">
-        <v>1</v>
-      </c>
-      <c r="B3" s="27" t="s">
+    <row r="8" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27">
+        <v>6</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="27">
+        <v>7</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28">
-        <v>2</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28">
-        <v>3</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28">
-        <v>4</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28">
-        <v>5</v>
-      </c>
-      <c r="B7" s="29" t="s">
+    <row r="10" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="27">
+        <v>8</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="28">
-        <v>6</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28">
-        <v>7</v>
-      </c>
-      <c r="B9" s="30" t="s">
+    <row r="11" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="27">
+        <v>9</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="30">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28">
-        <v>8</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28">
-        <v>9</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="31">
-        <v>10</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1295,8 +1474,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="13" t="s">
         <v>12</v>
       </c>
@@ -1319,19 +1498,19 @@
         <v>37</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -1339,15 +1518,15 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -1355,15 +1534,15 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -1371,15 +1550,15 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -1387,15 +1566,15 @@
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -1403,15 +1582,15 @@
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1419,15 +1598,15 @@
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1435,15 +1614,15 @@
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1451,15 +1630,15 @@
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -1467,10 +1646,10 @@
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="12"/>
@@ -1483,10 +1662,10 @@
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="12"/>
@@ -1499,10 +1678,10 @@
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="12"/>
@@ -1515,10 +1694,10 @@
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="12"/>
@@ -1531,10 +1710,10 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="12"/>
@@ -1547,10 +1726,10 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="12"/>
@@ -1589,136 +1768,136 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="35"/>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="34"/>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="37"/>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="38"/>
+      <c r="C7" s="37"/>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="38"/>
+      <c r="C8" s="37"/>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="36"/>
+      <c r="C9" s="35"/>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="34"/>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="12"/>
@@ -1730,10 +1909,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1745,276 +1924,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="53"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="53"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="53"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="46">
+        <v>44570</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="54"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="53"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="53"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+    </row>
+    <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="45" t="s">
+      <c r="D10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
         <v>1</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17" t="s">
+      <c r="B12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
         <v>2</v>
       </c>
-      <c r="C4" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="51">
-        <v>44570</v>
-      </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
-    </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17" t="s">
+      <c r="B13" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
         <v>3</v>
       </c>
-      <c r="C6" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17" t="s">
+      <c r="B14" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>4</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
+        <v>5</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <v>6</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
         <v>7</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
-    </row>
-    <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
-        <v>1</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
-        <v>2</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
-        <v>3</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
-        <v>4</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
-        <v>5</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
-        <v>6</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
-        <v>7</v>
-      </c>
-      <c r="B17" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+      <c r="C18" s="16"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
         <v>8</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
+      <c r="D19" s="19"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
         <v>9</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
+      <c r="C20" s="16"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20">
         <v>10</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
+      <c r="C21" s="16"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
         <v>11</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
+      <c r="C22" s="16"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
         <v>12</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
+      <c r="C23" s="16"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
         <v>13</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
+      <c r="C24" s="16"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
         <v>14</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
+      <c r="C25" s="16"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20">
         <v>15</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="11"/>
+      <c r="C26" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="A1:E1"/>
@@ -2058,109 +2253,109 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="12"/>
@@ -2168,10 +2363,10 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="12"/>
@@ -2179,10 +2374,10 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="12"/>
@@ -2190,10 +2385,10 @@
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="12"/>
@@ -2201,10 +2396,10 @@
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="12"/>
@@ -2212,10 +2407,10 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="12"/>
@@ -2246,8 +2441,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="13" t="s">
         <v>11</v>
       </c>
@@ -2273,15 +2468,15 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2"/>
@@ -2291,15 +2486,15 @@
       <c r="L2"/>
     </row>
     <row r="3" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3"/>
@@ -2309,15 +2504,15 @@
       <c r="L3"/>
     </row>
     <row r="4" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4"/>
@@ -2327,15 +2522,15 @@
       <c r="L4"/>
     </row>
     <row r="5" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5"/>
@@ -2345,15 +2540,15 @@
       <c r="L5"/>
     </row>
     <row r="6" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6"/>
@@ -2363,15 +2558,15 @@
       <c r="L6"/>
     </row>
     <row r="7" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7"/>
@@ -2381,15 +2576,15 @@
       <c r="L7"/>
     </row>
     <row r="8" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8"/>
@@ -2399,15 +2594,15 @@
       <c r="L8"/>
     </row>
     <row r="9" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9"/>
@@ -2417,15 +2612,15 @@
       <c r="L9"/>
     </row>
     <row r="10" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10"/>
@@ -2435,10 +2630,10 @@
       <c r="L10"/>
     </row>
     <row r="11" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="12"/>
@@ -2453,10 +2648,10 @@
       <c r="L11"/>
     </row>
     <row r="12" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="12"/>
@@ -2471,10 +2666,10 @@
       <c r="L12"/>
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="12"/>
@@ -2489,10 +2684,10 @@
       <c r="L13"/>
     </row>
     <row r="14" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="12"/>
@@ -2507,10 +2702,10 @@
       <c r="L14"/>
     </row>
     <row r="15" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="12"/>
@@ -2525,10 +2720,10 @@
       <c r="L15"/>
     </row>
     <row r="16" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="12"/>
@@ -2566,8 +2761,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="13" t="s">
         <v>8</v>
       </c>
@@ -2579,109 +2774,109 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="12"/>
@@ -2689,10 +2884,10 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="12"/>
@@ -2700,10 +2895,10 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="12"/>
@@ -2711,10 +2906,10 @@
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="12"/>
@@ -2722,10 +2917,10 @@
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="12"/>
@@ -2733,10 +2928,10 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="12"/>
@@ -2775,150 +2970,150 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="12"/>
@@ -2959,109 +3154,109 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="12"/>
@@ -3069,10 +3264,10 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="12"/>
@@ -3080,10 +3275,10 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="12"/>
@@ -3091,10 +3286,10 @@
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="12"/>
@@ -3102,10 +3297,10 @@
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="12"/>
@@ -3113,10 +3308,10 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="12"/>
@@ -3159,109 +3354,109 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="12"/>
@@ -3269,10 +3464,10 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="12"/>
@@ -3280,10 +3475,10 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="12"/>
@@ -3291,10 +3486,10 @@
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="12"/>
@@ -3302,10 +3497,10 @@
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="12"/>
@@ -3313,10 +3508,10 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="12"/>
@@ -3359,109 +3554,109 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="12"/>
@@ -3469,10 +3664,10 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="12"/>
@@ -3480,10 +3675,10 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="12"/>
@@ -3491,10 +3686,10 @@
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="12"/>
@@ -3502,10 +3697,10 @@
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="12"/>
@@ -3513,10 +3708,10 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="12"/>
